--- a/Naukri/src/main/resources/Inputs/Naukri_Inputs.xlsx
+++ b/Naukri/src/main/resources/Inputs/Naukri_Inputs.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="LoginPage" sheetId="1" r:id="rId1"/>
+    <sheet name="PrintMessage" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>https://www.naukri.com/</t>
   </si>
@@ -37,6 +38,102 @@
   </si>
   <si>
     <t>Dileep123</t>
+  </si>
+  <si>
+    <t>Combination Error Message</t>
+  </si>
+  <si>
+    <t>Invalid details. Please check the Email ID - Password combination.</t>
+  </si>
+  <si>
+    <t>Please enter your Email ID / Username</t>
+  </si>
+  <si>
+    <t>Please enter your Password</t>
+  </si>
+  <si>
+    <t>Experted Email Error Message</t>
+  </si>
+  <si>
+    <t>Experted Password Error Message</t>
+  </si>
+  <si>
+    <t>CORRECT COMBINATION ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>------------------------------------------------------------------------------------------------------------------</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expecated Combination Error Message : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Combination Error Message : </t>
+  </si>
+  <si>
+    <t>INCORRECT COMBINATION ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>CORRECT EMAIL ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>CORRECT PASSWORD ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>INCORRECT EMAIL ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>INCORRECT PASSWORD ERROR MESSAGE</t>
+  </si>
+  <si>
+    <t>Correct Combination Log Message</t>
+  </si>
+  <si>
+    <t>Correct Email Log Message</t>
+  </si>
+  <si>
+    <t>Correct Password Log Message</t>
+  </si>
+  <si>
+    <t>Incorrect Combination Log Message</t>
+  </si>
+  <si>
+    <t>InCorrect Email Log Message</t>
+  </si>
+  <si>
+    <t>InCorrect Password Log Message</t>
+  </si>
+  <si>
+    <t>Line Break Log Message</t>
+  </si>
+  <si>
+    <t>Combination Expected Log Message</t>
+  </si>
+  <si>
+    <t>Combination Actual Log Message</t>
+  </si>
+  <si>
+    <t>Email Expected Log Message</t>
+  </si>
+  <si>
+    <t>Email Actual Log Message</t>
+  </si>
+  <si>
+    <t>Password Expected Log Message</t>
+  </si>
+  <si>
+    <t>Password Actual Log Message</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Email Error Message : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Email Error Message : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expected Password Error Message : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Actual Password Error Message : </t>
   </si>
 </sst>
 </file>
@@ -93,10 +190,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,20 +477,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30" customWidth="1"/>
+    <col min="5" max="5" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="36.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
@@ -400,8 +501,17 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -410,10 +520,127 @@
       </c>
       <c r="C2" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="38.5703125" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="38.5703125" customWidth="1"/>
+    <col min="10" max="10" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.5703125" customWidth="1"/>
+    <col min="12" max="12" width="38.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>